--- a/Hardik-Record-Data.xlsx
+++ b/Hardik-Record-Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,26 @@
           <t xml:space="preserve">Profit/Loss As on 27 May, 2021 </t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Current Value of Stock As on 28 May, 2021 </t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Profit/Loss As on 28 May, 2021 </t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Current Value of Stock As on 31 May, 2021 </t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Profit/Loss As on 31 May, 2021 </t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -451,14 +471,30 @@
           <t>Reliance</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1976.10</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1976.1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>6.05 (0.31%)</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2094.8</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>118.70 (6.01%)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2160.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>65.50 (3.13%)</t>
         </is>
       </c>
     </row>
@@ -468,14 +504,30 @@
           <t>Bajaj Finance</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2508.85</t>
-        </is>
+      <c r="B3" t="n">
+        <v>2508.85</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>-58.70 (-2.29%)</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5610.75</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-71.45 (-1.26%)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5627.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>17.20 (0.31%)</t>
         </is>
       </c>
     </row>
@@ -485,14 +537,30 @@
           <t>HDFC Bank</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1482.65</t>
-        </is>
+      <c r="B4" t="n">
+        <v>1482.65</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>5.60 (0.38%)</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1503.45</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.80 (1.40%)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1515.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>12.40 (0.82%)</t>
         </is>
       </c>
     </row>
@@ -502,14 +570,30 @@
           <t>Maruti-Suzuki</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>6968.90</t>
-        </is>
+      <c r="B5" t="n">
+        <v>6968.9</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>-65.40 (-0.93%)</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>6970</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.10 (0.02%)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7086.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>116.30 (1.67%)</t>
         </is>
       </c>
     </row>
@@ -519,14 +603,30 @@
           <t>Bajaj Auto</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>4246.10</t>
-        </is>
+      <c r="B6" t="n">
+        <v>4246.1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>79.80 (1.92%)</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4199.5</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-46.60 (-1.10%)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4192.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-6.70 (-0.16%)</t>
         </is>
       </c>
     </row>
@@ -536,14 +636,30 @@
           <t xml:space="preserve">IDFC First Bank </t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>57.90</t>
-        </is>
+      <c r="B7" t="n">
+        <v>57.9</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>0.10 (0.17%)</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>59.15</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.25 (2.16%)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>58.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-0.65 (-1.10%)</t>
         </is>
       </c>
     </row>
@@ -553,14 +669,30 @@
           <t xml:space="preserve">Philips Carbon </t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>221.80</t>
-        </is>
+      <c r="B8" t="n">
+        <v>221.8</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>-2.10 (-0.94%)</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>223.85</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2.05 (0.92%)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>218.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-5.75 (-2.57%)</t>
         </is>
       </c>
     </row>
@@ -570,14 +702,30 @@
           <t xml:space="preserve">I Bull Housing Finance </t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>225.65</t>
-        </is>
+      <c r="B9" t="n">
+        <v>225.65</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>1.05 (0.47%)</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>223.55</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-2.10 (-0.93%)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>223.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.40 (0.18%)</t>
         </is>
       </c>
     </row>
@@ -587,14 +735,30 @@
           <t xml:space="preserve">IRCTC </t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1928.35</t>
-        </is>
+      <c r="B10" t="n">
+        <v>1928.35</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>34.30 (1.81%)</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1896.25</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-32.10 (-1.66%)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1903.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>6.95 (0.37%)</t>
         </is>
       </c>
     </row>
@@ -604,14 +768,30 @@
           <t xml:space="preserve">Muthood Finance </t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1244.15</t>
-        </is>
+      <c r="B11" t="n">
+        <v>1244.15</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>-26.15 (-2.06%)</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1266.2</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.05 (1.77%)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1311.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>45.40 (3.59%)</t>
         </is>
       </c>
     </row>
@@ -621,14 +801,30 @@
           <t xml:space="preserve">SBI Life </t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>982.10</t>
-        </is>
+      <c r="B12" t="n">
+        <v>982.1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>10.35 (1.07%)</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>976.85</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-5.25 (-0.53%)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>975.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-1.20 (-0.12%)</t>
         </is>
       </c>
     </row>
@@ -638,14 +834,30 @@
           <t xml:space="preserve">TCS </t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3180.00</t>
-        </is>
+      <c r="B13" t="n">
+        <v>3180</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>21.50 (0.68%)</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3143.6</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-36.40 (-1.14%)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3159.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>15.55 (0.49%)</t>
         </is>
       </c>
     </row>
@@ -655,14 +867,30 @@
           <t xml:space="preserve">Asian Paints </t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2949.35</t>
-        </is>
+      <c r="B14" t="n">
+        <v>2949.35</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>7.75 (0.26%)</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2940.7</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-8.65 (-0.29%)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2977.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>36.80 (1.25%)</t>
         </is>
       </c>
     </row>
@@ -672,14 +900,30 @@
           <t xml:space="preserve">Adani Port </t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>751.40</t>
-        </is>
+      <c r="B15" t="n">
+        <v>751.4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>-6.90 (-0.91%)</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>776.15</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.75 (3.29%)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>769.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-6.60 (-0.85%)</t>
         </is>
       </c>
     </row>
@@ -689,14 +933,30 @@
           <t>Deepak Nitrite</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1765.30</t>
-        </is>
+      <c r="B16" t="n">
+        <v>1765.3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>-19.55 (-1.10%)</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1794.3</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.00 (1.64%)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1785.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-8.90 (-0.50%)</t>
         </is>
       </c>
     </row>
@@ -706,14 +966,30 @@
           <t>JustDial</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>863.30</t>
-        </is>
+      <c r="B17" t="n">
+        <v>863.3</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>6.10 (0.71%)</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>922.05</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>58.75 (6.81%)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>944.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>22.35 (2.42%)</t>
         </is>
       </c>
     </row>
@@ -723,14 +999,30 @@
           <t>Delta Crop</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>173.85</t>
-        </is>
+      <c r="B18" t="n">
+        <v>173.85</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>-2.20 (-1.25%)</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>171.7</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-2.15 (-1.24%)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>170.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-1.65 (-0.96%)</t>
         </is>
       </c>
     </row>
@@ -740,14 +1032,30 @@
           <t>CoForge</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>3495.90</t>
-        </is>
+      <c r="B19" t="n">
+        <v>3495.9</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>11.25 (0.32%)</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3543.05</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>47.15 (1.35%)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3529.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-13.65 (-0.39%)</t>
         </is>
       </c>
     </row>
@@ -757,14 +1065,30 @@
           <t>Indigo</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1740.70</t>
-        </is>
+      <c r="B20" t="n">
+        <v>1740.7</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>16.55 (0.96%)</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1776.1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>35.40 (2.03%)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1758.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-17.20 (-0.97%)</t>
         </is>
       </c>
     </row>
@@ -774,14 +1098,30 @@
           <t>Lovable Lingeries Ltd</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>127.15</t>
-        </is>
+      <c r="B21" t="n">
+        <v>127.15</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>-10.30 (-7.49%)</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>6.75 (5.31%)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>128.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-5.70 (-4.26%)</t>
         </is>
       </c>
     </row>
@@ -791,14 +1131,30 @@
           <t>Bajaj Finserv</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>11888.80</t>
-        </is>
+      <c r="B22" t="n">
+        <v>11888.8</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>-17.60 (-0.15%)</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>11713.2</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>-175.60 (-1.48%)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>11806.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>93.10 (0.79%)</t>
         </is>
       </c>
     </row>
